--- a/todo.xlsx
+++ b/todo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\swb8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F53CC94-04E0-4585-920B-7427EABD0CEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3FE9028-3CEF-42A8-8D05-70925297650C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4335" yWindow="2850" windowWidth="20955" windowHeight="16575" xr2:uid="{B686D967-3B14-4BD7-A5B8-8D6E13C3B0C1}"/>
+    <workbookView xWindow="1965" yWindow="3105" windowWidth="23685" windowHeight="13995" xr2:uid="{B686D967-3B14-4BD7-A5B8-8D6E13C3B0C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>TODO</t>
   </si>
@@ -123,6 +123,18 @@
   </si>
   <si>
     <t>Zitata dazn style</t>
+  </si>
+  <si>
+    <t>hier nochmal wirkliche Prüfung, nicht nur Anzeige des Teilnahme-Links</t>
+  </si>
+  <si>
+    <t>Geburtstage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kommentare? </t>
+  </si>
+  <si>
+    <t>Saison-Zusammenfassung im description Feld pflegen, auch sowas wie "wir belegten am Ende den x. Platz?"</t>
   </si>
 </sst>
 </file>
@@ -138,12 +150,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -158,9 +176,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -477,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{756CE995-E1D1-4DF7-A9B7-17D1C9CBF506}">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,72 +507,75 @@
     <col min="2" max="2" width="83.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
+    <row r="7" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>10</v>
       </c>
@@ -628,9 +650,24 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\swb8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3FE9028-3CEF-42A8-8D05-70925297650C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8911F93-723F-4181-B3A2-BD386F2D523E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1965" yWindow="3105" windowWidth="23685" windowHeight="13995" xr2:uid="{B686D967-3B14-4BD7-A5B8-8D6E13C3B0C1}"/>
+    <workbookView xWindow="6120" yWindow="4530" windowWidth="23205" windowHeight="14700" xr2:uid="{B686D967-3B14-4BD7-A5B8-8D6E13C3B0C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -498,8 +498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{756CE995-E1D1-4DF7-A9B7-17D1C9CBF506}">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,17 +566,17 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -641,7 +641,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="1" t="s">
         <v>28</v>
       </c>
     </row>
